--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\智之\Desktop\PM学科＿前期3年\PM演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ひかる\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>ベロシティ</t>
     <phoneticPr fontId="1"/>
@@ -65,18 +65,6 @@
     <t>＃9</t>
   </si>
   <si>
-    <t>＃10</t>
-  </si>
-  <si>
-    <t>＃11</t>
-  </si>
-  <si>
-    <t>＃12</t>
-  </si>
-  <si>
-    <t>＃13</t>
-  </si>
-  <si>
     <t>見積</t>
     <rPh sb="0" eb="2">
       <t>ミツモリ</t>
@@ -146,9 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＃14</t>
-  </si>
-  <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -226,6 +211,14 @@
     <rPh sb="5" eb="7">
       <t>カイシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -235,7 +228,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -345,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,9 +461,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$B$27</c:f>
+              <c:f>Sheet1!$B$9:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="1">
                   <c:v>＃1</c:v>
                 </c:pt>
@@ -508,21 +501,12 @@
                   <c:v>＃11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>＃12</c:v>
+                  <c:v>外部設計書</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>＃13</c:v>
+                  <c:v>内部設計書</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>＃14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>外部設計書</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>内部設計書</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>テスト</c:v>
                 </c:pt>
               </c:strCache>
@@ -530,12 +514,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$9:$G$27</c:f>
+              <c:f>Sheet1!$G$9:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31</c:v>
@@ -558,8 +542,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="511066672"/>
-        <c:axId val="511067848"/>
+        <c:axId val="-1096213408"/>
+        <c:axId val="-1096216672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -604,9 +588,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$9:$B$27</c:f>
+              <c:f>Sheet1!$A$9:$B$24</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>＃1</c:v>
@@ -645,21 +629,12 @@
                     <c:v>＃11</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>＃12</c:v>
+                    <c:v>外部設計書</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>＃13</c:v>
+                    <c:v>内部設計書</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>＃14</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>外部設計書</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>内部設計書</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
                     <c:v>テスト</c:v>
                   </c:pt>
                 </c:lvl>
@@ -673,7 +648,7 @@
                   <c:pt idx="7">
                     <c:v>6月6日納品</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="11">
                     <c:v>7月17日納品</c:v>
                   </c:pt>
                 </c:lvl>
@@ -682,65 +657,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$27</c:f>
+              <c:f>Sheet1!$E$9:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -799,66 +765,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$27</c:f>
+              <c:f>Sheet1!$F$9:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.222222222222221</c:v>
+                  <c:v>24.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.444444444444443</c:v>
+                  <c:v>22.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.666666666666664</c:v>
+                  <c:v>20.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.888888888888886</c:v>
+                  <c:v>19.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.111111111111107</c:v>
+                  <c:v>17.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>15.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.55555555555555</c:v>
+                  <c:v>13.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.777777777777771</c:v>
+                  <c:v>12.133333333333326</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.999999999999993</c:v>
+                  <c:v>10.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.222222222222214</c:v>
+                  <c:v>8.6666666666666572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.444444444444436</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.666666666666657</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8888888888888786</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1111111111111009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3333333333333233</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5555555555555456</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7777777777777679</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-9.7699626167013776E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,11 +832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511066672"/>
-        <c:axId val="511067848"/>
+        <c:axId val="-1096213408"/>
+        <c:axId val="-1096216672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="511066672"/>
+        <c:axId val="-1096213408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +879,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511067848"/>
+        <c:crossAx val="-1096216672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -930,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="511067848"/>
+        <c:axId val="-1096216672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -983,7 +940,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511066672"/>
+        <c:crossAx val="-1096213408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1619,7 +1576,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1908,72 +1865,72 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="12.58203125" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="58.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="58.5" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <f>SUM(C10:C27)</f>
-        <v>32</v>
+        <f>SUM(C10:C24)</f>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(C10:C27)</f>
-        <v>32</v>
+        <f>SUM(C10:C24)</f>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(C10:C27)</f>
-        <v>32</v>
+        <f>SUM(C10:C24)</f>
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -1984,17 +1941,17 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f>$E$9-C10</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <f>$F9-$C$29</f>
-        <v>30.222222222222221</v>
+        <f>$F9-$C$26</f>
+        <v>24.266666666666666</v>
       </c>
       <c r="G10" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2004,15 +1961,15 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>E10-C11</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
-        <f>$F10-$C$29</f>
-        <v>28.444444444444443</v>
+        <f>$F10-$C$26</f>
+        <v>22.533333333333331</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2021,16 +1978,16 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E27" si="0">E11-C12</f>
-        <v>28</v>
+        <f t="shared" ref="E12:E24" si="0">E11-C12</f>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F27" si="1">$F11-$C$29</f>
-        <v>26.666666666666664</v>
+        <f>$F11-$C$26</f>
+        <v>20.799999999999997</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -2041,15 +1998,15 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>24.888888888888886</v>
+        <f>$F12-$C$26</f>
+        <v>19.066666666666663</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -2058,19 +2015,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>23.111111111111107</v>
+        <f>$F13-$C$26</f>
+        <v>17.333333333333329</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2083,17 +2040,17 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>21.333333333333329</v>
+        <f>$F14-$C$26</f>
+        <v>15.599999999999994</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
@@ -2103,15 +2060,15 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>19.55555555555555</v>
+        <f>$F15-$C$26</f>
+        <v>13.86666666666666</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
@@ -2121,15 +2078,15 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>17.777777777777771</v>
+        <f>$F16-$C$26</f>
+        <v>12.133333333333326</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -2139,232 +2096,173 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>15.999999999999993</v>
+        <f>$F17-$C$26</f>
+        <v>10.399999999999991</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>14.222222222222214</v>
+        <f>$F18-$C$26</f>
+        <v>8.6666666666666572</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <f>SUM(C16:C20)</f>
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>12.444444444444436</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="e">
+        <f>#REF!-C20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="2" t="e">
+        <f>#REF!-$C$26</f>
+        <v>#REF!</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6" t="s">
-        <v>31</v>
-      </c>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>10.666666666666657</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="e">
+        <f>#REF!-C21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="2" t="e">
+        <f>#REF!-$C$26</f>
+        <v>#REF!</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
+      <c r="E22" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>8.8888888888888786</v>
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="2" t="e">
+        <f>$F21-$C$26</f>
+        <v>#REF!</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>7.1111111111111009</v>
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="2" t="e">
+        <f>$F22-$C$26</f>
+        <v>#REF!</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM(C20:C24)</f>
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>5.3333333333333233</v>
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="2" t="e">
+        <f>$F23-$C$26</f>
+        <v>#REF!</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5555555555555456</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <f>SUM(C10:C24)</f>
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f>SUM(D15,D24,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7777777777777679</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <f>AVERAGE(C10:C24)</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <f>SUM(C21:C27)</f>
-        <v>14</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.7699626167013776E-15</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1">
-        <f>SUM(C10:C27)</f>
-        <v>32</v>
-      </c>
-      <c r="D28" s="1">
-        <f>SUM(D15,D27,D20)</f>
-        <v>32</v>
-      </c>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1">
-        <f>AVERAGE(C10:C27)</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>10</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -522,7 +522,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,8 +542,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-1096213408"/>
-        <c:axId val="-1096216672"/>
+        <c:axId val="621508704"/>
+        <c:axId val="621516864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -695,16 +695,16 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -803,19 +803,19 @@
                   <c:v>8.6666666666666572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6.9333333333333238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.466666666666657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.7333333333333236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-9.7699626167013776E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,11 +832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1096213408"/>
-        <c:axId val="-1096216672"/>
+        <c:axId val="621508704"/>
+        <c:axId val="621516864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1096213408"/>
+        <c:axId val="621508704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +879,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1096216672"/>
+        <c:crossAx val="621516864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -887,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1096216672"/>
+        <c:axId val="621516864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -940,7 +940,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1096213408"/>
+        <c:crossAx val="621508704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1569,15 +1569,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304801</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1867,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1944,11 +1944,11 @@
         <v>25</v>
       </c>
       <c r="F10" s="2">
-        <f>$F9-$C$26</f>
+        <f t="shared" ref="F10:F24" si="0">$F9-$C$26</f>
         <v>24.266666666666666</v>
       </c>
       <c r="G10" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1964,7 +1964,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="2">
-        <f>$F10-$C$26</f>
+        <f t="shared" si="0"/>
         <v>22.533333333333331</v>
       </c>
       <c r="G11" s="1"/>
@@ -1978,11 +1978,11 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E24" si="0">E11-C12</f>
+        <f t="shared" ref="E12:E24" si="1">E11-C12</f>
         <v>22</v>
       </c>
       <c r="F12" s="2">
-        <f>$F11-$C$26</f>
+        <f t="shared" si="0"/>
         <v>20.799999999999997</v>
       </c>
       <c r="G12" s="1"/>
@@ -1995,13 +1995,15 @@
       <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F13" s="2">
-        <f>$F12-$C$26</f>
         <v>19.066666666666663</v>
       </c>
       <c r="G13" s="1"/>
@@ -2014,15 +2016,16 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1">
+        <f>SUM(C10:C14)</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F14" s="2">
-        <f>$F13-$C$26</f>
         <v>17.333333333333329</v>
       </c>
       <c r="G14" s="1"/>
@@ -2031,19 +2034,15 @@
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <f>SUM(C10:C15)</f>
-        <v>8</v>
-      </c>
       <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F15" s="2">
-        <f>$F14-$C$26</f>
         <v>15.599999999999994</v>
       </c>
       <c r="G15" s="1"/>
@@ -2059,11 +2058,11 @@
         <v>3</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
-        <f>$F15-$C$26</f>
         <v>13.86666666666666</v>
       </c>
       <c r="G16" s="1"/>
@@ -2077,11 +2076,11 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F17" s="2">
-        <f>$F16-$C$26</f>
         <v>12.133333333333326</v>
       </c>
       <c r="G17" s="1"/>
@@ -2094,12 +2093,15 @@
       <c r="C18" s="8">
         <v>1</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F18" s="2">
-        <f>$F17-$C$26</f>
         <v>10.399999999999991</v>
       </c>
       <c r="G18" s="1"/>
@@ -2112,15 +2114,16 @@
       <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
+      <c r="D19" s="1">
+        <f>SUM(C15:C19)</f>
+        <v>8</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F19" s="2">
-        <f>$F18-$C$26</f>
         <v>8.6666666666666572</v>
       </c>
       <c r="G19" s="1"/>
@@ -2135,13 +2138,13 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="e">
-        <f>#REF!-C20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="2" t="e">
-        <f>#REF!-$C$26</f>
-        <v>#REF!</v>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9333333333333238</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -2153,13 +2156,13 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="1" t="e">
-        <f>#REF!-C21</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="2" t="e">
-        <f>#REF!-$C$26</f>
-        <v>#REF!</v>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999904</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -2171,13 +2174,13 @@
       <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="e">
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F22" s="2" t="e">
-        <f>$F21-$C$26</f>
-        <v>#REF!</v>
+        <v>3.466666666666657</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -2192,13 +2195,13 @@
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1" t="e">
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F23" s="2" t="e">
-        <f>$F22-$C$26</f>
-        <v>#REF!</v>
+        <v>1.7333333333333236</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -2213,13 +2216,13 @@
         <f>SUM(C20:C24)</f>
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="e">
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F24" s="2" t="e">
-        <f>$F23-$C$26</f>
-        <v>#REF!</v>
+        <v>-9.7699626167013776E-15</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -2231,9 +2234,9 @@
         <f>SUM(C10:C24)</f>
         <v>26</v>
       </c>
-      <c r="D25" s="1" t="e">
-        <f>SUM(D15,D24,#REF!)</f>
-        <v>#REF!</v>
+      <c r="D25" s="1">
+        <f>SUM(D14,D24,D19)</f>
+        <v>26</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ひかる\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -522,12 +522,18 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-17E3-4DF2-8BF6-4FADB46598AD}"/>
             </c:ext>
@@ -665,37 +671,37 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -713,7 +719,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-17E3-4DF2-8BF6-4FADB46598AD}"/>
             </c:ext>
@@ -821,6 +827,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C0B-4784-8924-415B71FEC1B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1867,8 +1878,8 @@
   </sheetPr>
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1936,19 +1947,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f>$E$9-C10</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ref="F10:F24" si="0">$F9-$C$26</f>
         <v>24.266666666666666</v>
       </c>
       <c r="G10" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1961,31 +1972,35 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>E10-C11</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>22.533333333333331</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E24" si="1">E11-C12</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>20.799999999999997</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
@@ -2000,7 +2015,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
@@ -2014,15 +2029,15 @@
         <v>6</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <f>SUM(C10:C14)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
@@ -2035,11 +2050,11 @@
         <v>7</v>
       </c>
       <c r="C15" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
@@ -2055,11 +2070,11 @@
         <v>8</v>
       </c>
       <c r="C16" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
@@ -2073,11 +2088,11 @@
         <v>9</v>
       </c>
       <c r="C17" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
@@ -2098,7 +2113,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
@@ -2116,11 +2131,11 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(C15:C19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
@@ -2140,7 +2155,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
@@ -2154,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
@@ -2214,7 +2229,7 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(C20:C24)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＃1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＃2</t>
   </si>
   <si>
@@ -162,19 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5月19日納品</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ノウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6月6日納品</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -219,6 +202,23 @@
   </si>
   <si>
     <t>＃11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月23日納品</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,12 +522,9 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -649,10 +646,10 @@
                     <c:v>4月21日開始</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5月19日納品</c:v>
+                    <c:v>6月6日納品</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6月6日納品</c:v>
+                    <c:v>6月23日納品</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>7月17日納品</c:v>
@@ -671,16 +668,16 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17</c:v>
@@ -1878,8 +1875,8 @@
   </sheetPr>
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1893,38 +1890,37 @@
   <sheetData>
     <row r="2" spans="1:7" ht="58.5" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <f>SUM(C10:C24)</f>
@@ -1941,30 +1937,30 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f>$E$9-C10</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10:F24" si="0">$F9-$C$26</f>
+        <f>$F9-$C$26</f>
         <v>24.266666666666666</v>
       </c>
       <c r="G10" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1972,50 +1968,48 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>E10-C11</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F10:F24" si="0">$F10-$C$26</f>
         <v>22.533333333333331</v>
       </c>
       <c r="G11" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E24" si="1">E11-C12</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>20.799999999999997</v>
       </c>
-      <c r="G12" s="1">
-        <v>24</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
@@ -2026,17 +2020,17 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <f>SUM(C10:C14)</f>
         <v>9</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f>E13-C14</f>
         <v>17</v>
       </c>
       <c r="F14" s="2">
@@ -2047,7 +2041,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8">
         <v>3</v>
@@ -2064,10 +2058,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -2085,7 +2079,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="8">
         <v>3</v>
@@ -2103,13 +2097,13 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
@@ -2124,7 +2118,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -2145,10 +2139,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -2166,7 +2160,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -2184,7 +2178,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -2202,13 +2196,13 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
@@ -2222,7 +2216,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -2243,7 +2237,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
         <f>SUM(C10:C24)</f>
@@ -2259,7 +2253,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1">
         <f>AVERAGE(C10:C24)</f>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -281,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -304,13 +304,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +365,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,6 +559,12 @@
                 <c:pt idx="2">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -674,13 +712,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
@@ -1577,14 +1615,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1876,7 +1914,7 @@
   <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1971,7 +2009,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ref="F10:F24" si="0">$F10-$C$26</f>
+        <f>$F10-$C$26</f>
         <v>22.533333333333331</v>
       </c>
       <c r="G11" s="1">
@@ -1983,18 +2021,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E24" si="1">E11-C12</f>
-        <v>22</v>
+        <f>E11-C12</f>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F11:F24" si="0">$F11-$C$26</f>
         <v>20.799999999999997</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
@@ -2002,36 +2044,36 @@
         <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM(C10:C13)</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E12:E24" si="1">E12-C13</f>
         <v>18</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>19.066666666666663</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <f>SUM(C10:C14)</f>
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="11">
         <f>E13-C14</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
@@ -2043,10 +2085,11 @@
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2063,10 +2106,11 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1"/>
+      <c r="E16" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2081,10 +2125,11 @@
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1"/>
+      <c r="E17" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -2099,13 +2144,13 @@
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2124,8 +2169,8 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f>SUM(C15:C19)</f>
-        <v>9</v>
+        <f>SUM(C14:C19)</f>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
@@ -2147,6 +2192,7 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2165,6 +2211,7 @@
       <c r="C21" s="4">
         <v>2</v>
       </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2183,6 +2230,7 @@
       <c r="C22" s="4">
         <v>2</v>
       </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2244,7 +2292,7 @@
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <f>SUM(D14,D24,D19)</f>
+        <f>SUM(D13,D24,D19)</f>
         <v>26</v>
       </c>
       <c r="E25" s="7"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeda\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,19 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6月6日納品</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ノウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7月17日納品</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -219,6 +206,19 @@
   </si>
   <si>
     <t>＃1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月7日納品</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ノウヒン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -684,9 +684,9 @@
                     <c:v>4月21日開始</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6月6日納品</c:v>
+                    <c:v>6月7日納品</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="5">
                     <c:v>6月23日納品</c:v>
                   </c:pt>
                   <c:pt idx="11">
@@ -1913,8 +1913,8 @@
   </sheetPr>
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F11:F24" si="0">$F11-$C$26</f>
+        <f t="shared" ref="F12:F24" si="0">$F11-$C$26</f>
         <v>20.799999999999997</v>
       </c>
       <c r="G12" s="1">
@@ -2051,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E12:E24" si="1">E12-C13</f>
+        <f t="shared" ref="E13:E24" si="1">E12-C13</f>
         <v>18</v>
       </c>
       <c r="F13" s="2">
@@ -2063,7 +2063,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2100,9 +2102,6 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2184,10 +2183,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -2206,7 +2205,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeda\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ベロシティ</t>
     <phoneticPr fontId="1"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部設計書</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -184,14 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＃10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＃11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6月23日納品</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -220,6 +208,20 @@
       <t>ノウヒン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃11</t>
+  </si>
+  <si>
+    <t>＃12</t>
   </si>
 </sst>
 </file>
@@ -270,18 +272,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -317,26 +319,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,9 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -361,16 +347,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,9 +476,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$B$24</c:f>
+              <c:f>Sheet1!$B$9:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
                   <c:v>＃1</c:v>
                 </c:pt>
@@ -533,12 +516,15 @@
                   <c:v>＃11</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>＃12</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>外部設計書</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>内部設計書</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>テスト</c:v>
                 </c:pt>
               </c:strCache>
@@ -546,24 +532,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$9:$G$24</c:f>
+              <c:f>Sheet1!$G$9:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,9 +621,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$9:$B$24</c:f>
+              <c:f>Sheet1!$A$9:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>＃1</c:v>
@@ -670,12 +662,15 @@
                     <c:v>＃11</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>＃12</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>外部設計書</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>内部設計書</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>テスト</c:v>
                   </c:pt>
                 </c:lvl>
@@ -686,10 +681,10 @@
                   <c:pt idx="1">
                     <c:v>6月7日納品</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="8">
                     <c:v>6月23日納品</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>7月17日納品</c:v>
                   </c:pt>
                 </c:lvl>
@@ -698,56 +693,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$24</c:f>
+              <c:f>Sheet1!$E$9:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -806,57 +804,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$24</c:f>
+              <c:f>Sheet1!$F$9:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.266666666666666</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.533333333333331</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.799999999999997</c:v>
+                  <c:v>22.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.066666666666663</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.333333333333329</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.599999999999994</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.86666666666666</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.133333333333326</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.399999999999991</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.6666666666666572</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9333333333333238</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.466666666666657</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7333333333333236</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.7699626167013776E-15</c:v>
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,7 +1623,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1911,10 +1912,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1927,7 +1928,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1955,30 +1956,30 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
+      <c r="A9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <f>SUM(C10:C24)</f>
-        <v>26</v>
+        <f>SUM(C10:C25)</f>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(C10:C24)</f>
-        <v>26</v>
+        <f>SUM(C10:C25)</f>
+        <v>28</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(C10:C24)</f>
-        <v>26</v>
+        <f>SUM(C10:C25)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>29</v>
+      <c r="A10" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1986,14 +1987,15 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f>$E$9-C10</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2">
-        <f>$F9-$C$26</f>
-        <v>24.266666666666666</v>
+        <f>$F9-$C$27</f>
+        <v>26.25</v>
       </c>
       <c r="G10" s="1">
-        <v>25</v>
+        <f>G9-C10</f>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2006,14 +2008,15 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>E10-C11</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
-        <f>$F10-$C$26</f>
-        <v>22.533333333333331</v>
+        <f>$F10-$C$27</f>
+        <v>24.5</v>
       </c>
       <c r="G11" s="1">
-        <v>24</v>
+        <f t="shared" ref="G11:G14" si="0">G10-C11</f>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2028,18 +2031,19 @@
       </c>
       <c r="E12" s="1">
         <f>E11-C12</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F24" si="0">$F11-$C$26</f>
-        <v>20.799999999999997</v>
+        <f>$F11-$C$27</f>
+        <v>22.75</v>
       </c>
       <c r="G12" s="1">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2051,282 +2055,309 @@
         <v>8</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E24" si="1">E12-C13</f>
-        <v>18</v>
+        <f>E12-C13</f>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" ref="F13:F25" si="1">$F12-$C$27</f>
+        <v>21</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>19.066666666666663</v>
-      </c>
-      <c r="G13" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="11">
-        <f>E13-C14</f>
-        <v>16</v>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E25" si="2">E13-C14</f>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>19.25</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>17.333333333333329</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="11">
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>15.599999999999994</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="G15" s="1">
+        <f>G14-C18</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10">
-        <v>1</v>
+      <c r="C16" s="8">
+        <v>2</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="11">
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>13.86666666666666</v>
+        <v>15.75</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="11">
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>12.133333333333326</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>10.399999999999991</v>
+        <v>12.25</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
-        <f>SUM(C14:C19)</f>
-        <v>10</v>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666572</v>
+        <v>10.5</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <f>SUM(C14:C19)</f>
+        <v>11</v>
+      </c>
       <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9333333333333238</v>
+        <v>8.75</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999904</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4">
+        <v>30</v>
+      </c>
+      <c r="C22" s="9">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>3.466666666666657</v>
+        <v>5.25</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7333333333333236</v>
+        <v>3.5</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D24" s="1">
-        <f>SUM(C20:C24)</f>
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.7699626167013776E-15</v>
+        <v>1.75</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
-        <f>SUM(C10:C24)</f>
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <f>SUM(D13,D24,D19)</f>
-        <v>26</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+        <f>SUM(C20:C25)</f>
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
-        <f>AVERAGE(C10:C24)</f>
-        <v>1.7333333333333334</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+        <f>SUM(C10:C25)</f>
+        <v>28</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(D13,D25,D20)</f>
+        <v>28</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+        <f>AVERAGE(C10:C25)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" firstPageNumber="100" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" firstPageNumber="100" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R4</oddFooter>
   </headerFooter>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -1914,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2158,7 +2158,9 @@
       <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2177,8 +2179,9 @@
       <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>18</v>
+      <c r="D19" s="1">
+        <f>SUM(C14:C19)</f>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
@@ -2198,10 +2201,6 @@
       <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
-        <f>SUM(C14:C19)</f>
-        <v>11</v>
-      </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2322,7 +2321,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="1">
-        <f>SUM(D13,D25,D20)</f>
+        <f>SUM(D13,D25,D19)</f>
         <v>28</v>
       </c>
       <c r="E26" s="6"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>ベロシティ</t>
     <phoneticPr fontId="1"/>
@@ -210,18 +210,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>＃12</t>
+  </si>
+  <si>
+    <t>＃13</t>
+  </si>
+  <si>
+    <t>＃11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＃10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＃11</t>
-  </si>
-  <si>
-    <t>＃12</t>
   </si>
 </sst>
 </file>
@@ -325,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +358,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,9 +483,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$B$25</c:f>
+              <c:f>Sheet1!$B$9:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="1">
                   <c:v>＃1</c:v>
                 </c:pt>
@@ -519,12 +526,15 @@
                   <c:v>＃12</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>＃13</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>外部設計書</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>内部設計書</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>テスト</c:v>
                 </c:pt>
               </c:strCache>
@@ -532,30 +542,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$9:$G$25</c:f>
+              <c:f>Sheet1!$G$9:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,9 +631,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$9:$B$25</c:f>
+              <c:f>Sheet1!$A$9:$B$26</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>＃1</c:v>
@@ -665,12 +675,15 @@
                     <c:v>＃12</c:v>
                   </c:pt>
                   <c:pt idx="14">
+                    <c:v>＃13</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
                     <c:v>外部設計書</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>内部設計書</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>テスト</c:v>
                   </c:pt>
                 </c:lvl>
@@ -684,7 +697,7 @@
                   <c:pt idx="8">
                     <c:v>6月23日納品</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>7月17日納品</c:v>
                   </c:pt>
                 </c:lvl>
@@ -693,59 +706,62 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$25</c:f>
+              <c:f>Sheet1!$E$9:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -804,60 +820,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$25</c:f>
+              <c:f>Sheet1!$F$9:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.25</c:v>
+                  <c:v>27.294117647058822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.5</c:v>
+                  <c:v>25.588235294117645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.75</c:v>
+                  <c:v>23.882352941176467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>22.17647058823529</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.25</c:v>
+                  <c:v>20.470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.5</c:v>
+                  <c:v>18.764705882352935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.75</c:v>
+                  <c:v>17.058823529411757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>15.352941176470582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.25</c:v>
+                  <c:v>13.647058823529406</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5</c:v>
+                  <c:v>11.94117647058823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.75</c:v>
+                  <c:v>10.235294117647054</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>8.5294117647058787</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.25</c:v>
+                  <c:v>6.8235294117647021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5</c:v>
+                  <c:v>5.1176470588235254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.75</c:v>
+                  <c:v>3.4117647058823488</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.7058823529411724</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9968028886505635E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,7 +1642,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1912,10 +1931,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C19"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1962,16 +1981,16 @@
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <f>SUM(C10:C25)</f>
-        <v>28</v>
+        <f>SUM(C10:C26)</f>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(C10:C25)</f>
-        <v>28</v>
+        <f>SUM(C10:C26)</f>
+        <v>29</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(C10:C25)</f>
-        <v>28</v>
+        <f>SUM(C10:C26)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1987,15 +2006,15 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f>$E$9-C10</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
-        <f>$F9-$C$27</f>
-        <v>26.25</v>
+        <f>$F9-$C$28</f>
+        <v>27.294117647058822</v>
       </c>
       <c r="G10" s="1">
         <f>G9-C10</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2008,15 +2027,15 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>E10-C11</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2">
-        <f>$F10-$C$27</f>
-        <v>24.5</v>
+        <f>$F10-$C$28</f>
+        <v>25.588235294117645</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11:G14" si="0">G10-C11</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2031,15 +2050,15 @@
       </c>
       <c r="E12" s="1">
         <f>E11-C12</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
-        <f>$F11-$C$27</f>
-        <v>22.75</v>
+        <f>$F11-$C$28</f>
+        <v>23.882352941176467</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2056,15 +2075,15 @@
       </c>
       <c r="E13" s="1">
         <f>E12-C13</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13:F25" si="1">$F12-$C$27</f>
-        <v>21</v>
+        <f t="shared" ref="F13:F26" si="1">$F12-$C$28</f>
+        <v>22.17647058823529</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2077,16 +2096,16 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E25" si="2">E13-C14</f>
-        <v>18</v>
+        <f t="shared" ref="E14:E26" si="2">E13-C14</f>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>19.25</v>
+        <v>20.470588235294112</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -2095,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
@@ -2104,11 +2123,11 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>18.764705882352935</v>
       </c>
       <c r="G15" s="1">
-        <f>G14-C18</f>
-        <v>17</v>
+        <f>G14-C19</f>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -2116,16 +2135,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>15.75</v>
+        <v>17.058823529411757</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2137,16 +2156,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15.352941176470582</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -2156,105 +2175,106 @@
         <v>9</v>
       </c>
       <c r="C18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>12.25</v>
+        <v>13.647058823529406</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="1">
         <f>SUM(C14:C19)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11.94117647058823</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>8.75</v>
+        <v>10.235294117647054</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5294117647058787</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>5.25</v>
+        <v>6.8235294117647021</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C23" s="9">
         <v>2</v>
@@ -2262,96 +2282,115 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.1176470588235254</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>3.4117647058823488</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <f>SUM(C20:C25)</f>
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7058823529411724</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(C20:C26)</f>
         <v>11</v>
       </c>
-      <c r="C26" s="1">
-        <f>SUM(C10:C25)</f>
-        <v>28</v>
-      </c>
-      <c r="D26" s="1">
-        <f>SUM(D13,D25,D19)</f>
-        <v>28</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.9968028886505635E-15</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
-        <f>AVERAGE(C10:C25)</f>
-        <v>1.75</v>
-      </c>
-      <c r="D27" s="6"/>
+        <f>SUM(C10:C26)</f>
+        <v>29</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(D13,D26,D19)</f>
+        <v>29</v>
+      </c>
       <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
-        <v>10</v>
+        <f>AVERAGE(C10:C26)</f>
+        <v>1.7058823529411764</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ベロシティ</t>
     <phoneticPr fontId="1"/>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>＃12</t>
-  </si>
-  <si>
-    <t>＃13</t>
   </si>
   <si>
     <t>＃11</t>
@@ -483,9 +480,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$B$26</c:f>
+              <c:f>Sheet1!$B$9:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
                   <c:v>＃1</c:v>
                 </c:pt>
@@ -526,15 +523,12 @@
                   <c:v>＃12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>＃13</c:v>
+                  <c:v>外部設計書</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>外部設計書</c:v>
+                  <c:v>内部設計書</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>内部設計書</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>テスト</c:v>
                 </c:pt>
               </c:strCache>
@@ -542,30 +536,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$9:$G$26</c:f>
+              <c:f>Sheet1!$G$9:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,16 +687,16 @@
                     <c:v>＃12</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>＃13</c:v>
+                    <c:v>外部設計書</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>外部設計書</c:v>
+                    <c:v>内部設計書</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>内部設計書</c:v>
+                    <c:v>テスト</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>テスト</c:v>
+                    <c:v>合計</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -706,27 +718,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$26</c:f>
+              <c:f>Sheet1!$E$9:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16</c:v>
@@ -744,24 +756,21 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -820,63 +829,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$26</c:f>
+              <c:f>Sheet1!$F$9:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.294117647058822</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.588235294117645</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.882352941176467</c:v>
+                  <c:v>22.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.17647058823529</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.470588235294112</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.764705882352935</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.058823529411757</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.352941176470582</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.647058823529406</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.94117647058823</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.235294117647054</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5294117647058787</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.8235294117647021</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1176470588235254</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4117647058823488</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7058823529411724</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.9968028886505635E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,10 +1937,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1981,16 +1987,16 @@
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <f>SUM(C10:C26)</f>
-        <v>29</v>
+        <f>SUM(C10:C25)</f>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(C10:C26)</f>
-        <v>29</v>
+        <f>SUM(C10:C25)</f>
+        <v>28</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(C10:C26)</f>
-        <v>29</v>
+        <f>SUM(C10:C25)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -2006,15 +2012,15 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f>$E$9-C10</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2">
-        <f>$F9-$C$28</f>
-        <v>27.294117647058822</v>
+        <f>$F9-$C$27</f>
+        <v>26.25</v>
       </c>
       <c r="G10" s="1">
         <f>G9-C10</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2027,15 +2033,15 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>E10-C11</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
-        <f>$F10-$C$28</f>
-        <v>25.588235294117645</v>
+        <f>$F10-$C$27</f>
+        <v>24.5</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G14" si="0">G10-C11</f>
-        <v>27</v>
+        <f t="shared" ref="G11:G12" si="0">G10-C11</f>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2050,15 +2056,15 @@
       </c>
       <c r="E12" s="1">
         <f>E11-C12</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
-        <f>$F11-$C$28</f>
-        <v>23.882352941176467</v>
+        <f>$F11-$C$27</f>
+        <v>22.75</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2075,15 +2081,15 @@
       </c>
       <c r="E13" s="1">
         <f>E12-C13</f>
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <f>$F12-$C$27</f>
         <v>21</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" ref="F13:F26" si="1">$F12-$C$28</f>
-        <v>22.17647058823529</v>
-      </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>G12-C13</f>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2096,16 +2102,16 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E26" si="2">E13-C14</f>
-        <v>19</v>
+        <f t="shared" ref="E14:E25" si="1">E13-C14</f>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>20.470588235294112</v>
+        <f>$F13-$C$27</f>
+        <v>19.25</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>G13-C14</f>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -2114,20 +2120,20 @@
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>18.764705882352935</v>
+        <f t="shared" ref="F15:F25" si="2">$F14-$C$27</f>
+        <v>17.5</v>
       </c>
       <c r="G15" s="1">
-        <f>G14-C19</f>
-        <v>18</v>
+        <f>G14-C16</f>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -2139,14 +2145,17 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="2"/>
+        <v>15.75</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G15-C15</f>
         <v>15</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>17.058823529411757</v>
-      </c>
-      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
@@ -2160,14 +2169,17 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>15.352941176470582</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <f t="shared" ref="G16:G19" si="3">G16-C17</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
@@ -2181,74 +2193,86 @@
         <v>18</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="2"/>
+        <v>12.25</v>
+      </c>
+      <c r="G18" s="1">
+        <f>G17-C18</f>
         <v>12</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>13.647058823529406</v>
-      </c>
-      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="1">
         <f>SUM(C14:C19)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>11.94117647058823</v>
-      </c>
-      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>10.235294117647054</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="G20" s="1">
+        <f>G19-C20</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>8.5294117647058787</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <f>G20-C21</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
@@ -2258,139 +2282,121 @@
         <v>27</v>
       </c>
       <c r="C22" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>6.8235294117647021</v>
+        <v>5.25</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C23" s="9">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>5.1176470588235254</v>
+        <v>3.5</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4117647058823488</v>
+        <v>1.75</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="9">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f>SUM(C20:C25)</f>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7058823529411724</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SUM(C10:C25)</f>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
-        <f>SUM(C20:C26)</f>
-        <v>11</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.9968028886505635E-15</v>
-      </c>
-      <c r="G26" s="1"/>
+        <f>SUM(D13,D25,D19)</f>
+        <v>28</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1">
-        <f>SUM(C10:C26)</f>
-        <v>29</v>
-      </c>
-      <c r="D27" s="1">
-        <f>SUM(D13,D26,D19)</f>
-        <v>29</v>
-      </c>
+        <f>AVERAGE(C10:C25)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <f>AVERAGE(C10:C26)</f>
-        <v>1.7058823529411764</v>
+        <v>10</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ひかる\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -579,10 +579,22 @@
                 <c:pt idx="12">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-17E3-4DF2-8BF6-4FADB46598AD}"/>
             </c:ext>
@@ -597,8 +609,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="621508704"/>
-        <c:axId val="621516864"/>
+        <c:axId val="1203973088"/>
+        <c:axId val="1203973632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -777,7 +789,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-17E3-4DF2-8BF6-4FADB46598AD}"/>
             </c:ext>
@@ -888,7 +900,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C0B-4784-8924-415B71FEC1B0}"/>
             </c:ext>
@@ -904,11 +916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="621508704"/>
-        <c:axId val="621516864"/>
+        <c:axId val="1203973088"/>
+        <c:axId val="1203973632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="621508704"/>
+        <c:axId val="1203973088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +963,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621516864"/>
+        <c:crossAx val="1203973632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="621516864"/>
+        <c:axId val="1203973632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1012,7 +1024,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621508704"/>
+        <c:crossAx val="1203973088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1939,8 +1951,8 @@
   </sheetPr>
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2177,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G16:G19" si="3">G16-C17</f>
+        <f t="shared" ref="G17:G19" si="3">G16-C17</f>
         <v>14</v>
       </c>
     </row>
@@ -2293,7 +2305,9 @@
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
@@ -2312,7 +2326,9 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
@@ -2333,7 +2349,9 @@
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
@@ -2355,7 +2373,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ひかる\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -594,7 +594,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-17E3-4DF2-8BF6-4FADB46598AD}"/>
             </c:ext>
@@ -789,7 +789,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-17E3-4DF2-8BF6-4FADB46598AD}"/>
             </c:ext>
@@ -900,7 +900,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C0B-4784-8924-415B71FEC1B0}"/>
             </c:ext>
@@ -1951,8 +1951,8 @@
   </sheetPr>
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>ベロシティ</t>
     <phoneticPr fontId="1"/>
@@ -46,9 +46,6 @@
     <t>＃4</t>
   </si>
   <si>
-    <t>＃5</t>
-  </si>
-  <si>
     <t>＃6</t>
   </si>
   <si>
@@ -210,19 +207,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＃12</t>
-  </si>
-  <si>
-    <t>＃11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＃10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃11</t>
   </si>
 </sst>
 </file>
@@ -480,9 +477,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$B$25</c:f>
+              <c:f>Sheet1!$B$9:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="1">
                   <c:v>＃1</c:v>
                 </c:pt>
@@ -520,15 +517,12 @@
                   <c:v>＃11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>＃12</c:v>
+                  <c:v>外部設計書</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>外部設計書</c:v>
+                  <c:v>内部設計書</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>内部設計書</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>テスト</c:v>
                 </c:pt>
               </c:strCache>
@@ -536,59 +530,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$9:$G$25</c:f>
+              <c:f>Sheet1!$G$9:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -655,9 +646,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$9:$B$26</c:f>
+              <c:f>Sheet1!$A$9:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>＃1</c:v>
@@ -696,18 +687,15 @@
                     <c:v>＃11</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>＃12</c:v>
+                    <c:v>外部設計書</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>外部設計書</c:v>
+                    <c:v>内部設計書</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>内部設計書</c:v>
+                    <c:v>テスト</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>テスト</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
                     <c:v>合計</c:v>
                   </c:pt>
                 </c:lvl>
@@ -721,7 +709,7 @@
                   <c:pt idx="8">
                     <c:v>6月23日納品</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="12">
                     <c:v>7月17日納品</c:v>
                   </c:pt>
                 </c:lvl>
@@ -730,59 +718,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$25</c:f>
+              <c:f>Sheet1!$E$9:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -841,60 +826,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$25</c:f>
+              <c:f>Sheet1!$F$9:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.25</c:v>
+                  <c:v>24.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.5</c:v>
+                  <c:v>22.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.75</c:v>
+                  <c:v>20.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>19.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.25</c:v>
+                  <c:v>17.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.5</c:v>
+                  <c:v>15.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.75</c:v>
+                  <c:v>13.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>12.133333333333326</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.25</c:v>
+                  <c:v>10.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5</c:v>
+                  <c:v>8.6666666666666572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.75</c:v>
+                  <c:v>6.9333333333333238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>5.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.25</c:v>
+                  <c:v>3.466666666666657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5</c:v>
+                  <c:v>1.7333333333333236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-9.7699626167013776E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,7 +1642,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1949,10 +1931,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B20" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1966,12 +1948,12 @@
   <sheetData>
     <row r="2" spans="1:7" ht="58.5" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1979,44 +1961,44 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <f>SUM(C10:C25)</f>
-        <v>28</v>
+        <f>SUM(C10:C24)</f>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(C10:C25)</f>
-        <v>28</v>
+        <f>SUM(C10:C24)</f>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(C10:C25)</f>
-        <v>28</v>
+        <f>SUM(C10:C24)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -2024,15 +2006,15 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f>$E$9-C10</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <f>$F9-$C$27</f>
-        <v>26.25</v>
+        <f>$F9-$C$26</f>
+        <v>24.266666666666666</v>
       </c>
       <c r="G10" s="1">
         <f>G9-C10</f>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2045,15 +2027,15 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>E10-C11</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
-        <f>$F10-$C$27</f>
-        <v>24.5</v>
+        <f>$F10-$C$26</f>
+        <v>22.533333333333331</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11:G12" si="0">G10-C11</f>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2064,19 +2046,19 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <f>E11-C12</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
-        <f>$F11-$C$27</f>
-        <v>22.75</v>
+        <f>$F11-$C$26</f>
+        <v>20.799999999999997</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2093,43 +2075,43 @@
       </c>
       <c r="E13" s="1">
         <f>E12-C13</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
-        <f>$F12-$C$27</f>
-        <v>21</v>
+        <f>$F12-$C$26</f>
+        <v>19.066666666666663</v>
       </c>
       <c r="G13" s="1">
         <f>G12-C13</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E25" si="1">E13-C14</f>
-        <v>18</v>
+        <f t="shared" ref="E14:E24" si="1">E13-C14</f>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
-        <f>$F13-$C$27</f>
-        <v>19.25</v>
+        <f>$F13-$C$26</f>
+        <v>17.333333333333329</v>
       </c>
       <c r="G14" s="1">
         <f>G13-C14</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
@@ -2137,20 +2119,20 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ref="F15:F25" si="2">$F14-$C$27</f>
-        <v>17.5</v>
+        <f>$F14-$C$26</f>
+        <v>15.599999999999994</v>
       </c>
       <c r="G15" s="1">
         <f>G14-C16</f>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -2158,23 +2140,23 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>15.75</v>
+        <f>$F15-$C$26</f>
+        <v>13.86666666666666</v>
       </c>
       <c r="G16" s="1">
         <f>G15-C15</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -2182,131 +2164,130 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>$F16-$C$26</f>
+        <v>12.133333333333326</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G19" si="3">G16-C17</f>
-        <v>14</v>
+        <f t="shared" ref="G17:G19" si="2">G16-C17</f>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>12.25</v>
+        <f>$F17-$C$26</f>
+        <v>10.399999999999991</v>
       </c>
       <c r="G18" s="1">
         <f>G17-C18</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="1">
         <f>SUM(C14:C19)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>E18-C19</f>
+        <v>10</v>
       </c>
       <c r="F19" s="2">
+        <f>$F18-$C$26</f>
+        <v>8.6666666666666572</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>10.5</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>E19-C20</f>
+        <v>9</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>8.75</v>
+        <f>$F19-$C$26</f>
+        <v>6.9333333333333238</v>
       </c>
       <c r="G20" s="1">
         <f>G19-C20</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>$F20-$C$26</f>
+        <v>5.1999999999999904</v>
       </c>
       <c r="G21" s="1">
-        <f>G20-C21</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C22" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>5.25</v>
+        <f>$F21-$C$26</f>
+        <v>3.466666666666657</v>
       </c>
       <c r="G22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -2317,106 +2298,85 @@
       <c r="C23" s="9">
         <v>2</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
+        <f>$F22-$C$26</f>
+        <v>1.7333333333333236</v>
       </c>
       <c r="G23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" s="9">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM(C20:C24)</f>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
+        <f>$F23-$C$26</f>
+        <v>-9.7699626167013776E-15</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <f>SUM(C10:C24)</f>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
-        <f>SUM(C20:C25)</f>
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
+        <f>SUM(D13,D24,D19)</f>
+        <v>26</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1">
-        <f>SUM(C10:C25)</f>
-        <v>28</v>
-      </c>
-      <c r="D26" s="1">
-        <f>SUM(D13,D25,D19)</f>
-        <v>28</v>
-      </c>
+        <f>AVERAGE(C10:C24)</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <f>AVERAGE(C10:C25)</f>
-        <v>1.75</v>
+        <v>10</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>10</v>
-      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/矢吹研C班バーンダウンチャート.xlsx
+++ b/矢吹研C班バーンダウンチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1934,7 +1934,7 @@
   <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2009,7 +2009,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="2">
-        <f>$F9-$C$26</f>
+        <f t="shared" ref="F10:F24" si="0">$F9-$C$26</f>
         <v>24.266666666666666</v>
       </c>
       <c r="G10" s="1">
@@ -2030,11 +2030,11 @@
         <v>24</v>
       </c>
       <c r="F11" s="2">
-        <f>$F10-$C$26</f>
+        <f t="shared" si="0"/>
         <v>22.533333333333331</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G12" si="0">G10-C11</f>
+        <f t="shared" ref="G11:G12" si="1">G10-C11</f>
         <v>24</v>
       </c>
     </row>
@@ -2053,11 +2053,11 @@
         <v>21</v>
       </c>
       <c r="F12" s="2">
-        <f>$F11-$C$26</f>
+        <f t="shared" si="0"/>
         <v>20.799999999999997</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="2">
-        <f>$F12-$C$26</f>
+        <f t="shared" si="0"/>
         <v>19.066666666666663</v>
       </c>
       <c r="G13" s="1">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E24" si="1">E13-C14</f>
+        <f t="shared" ref="E14:E24" si="2">E13-C14</f>
         <v>16</v>
       </c>
       <c r="F14" s="2">
-        <f>$F13-$C$26</f>
+        <f t="shared" si="0"/>
         <v>17.333333333333329</v>
       </c>
       <c r="G14" s="1">
@@ -2118,11 +2118,11 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="F15" s="2">
-        <f>$F14-$C$26</f>
+        <f t="shared" si="0"/>
         <v>15.599999999999994</v>
       </c>
       <c r="G15" s="1">
@@ -2139,11 +2139,11 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F16" s="2">
-        <f>$F15-$C$26</f>
+        <f t="shared" si="0"/>
         <v>13.86666666666666</v>
       </c>
       <c r="G16" s="1">
@@ -2163,15 +2163,15 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="F17" s="2">
-        <f>$F16-$C$26</f>
+        <f t="shared" si="0"/>
         <v>12.133333333333326</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G19" si="2">G16-C17</f>
+        <f t="shared" ref="G17:G19" si="3">G16-C17</f>
         <v>12</v>
       </c>
     </row>
@@ -2187,11 +2187,11 @@
         <v>17</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F18" s="2">
-        <f>$F17-$C$26</f>
+        <f t="shared" si="0"/>
         <v>10.399999999999991</v>
       </c>
       <c r="G18" s="1">
@@ -2216,11 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F19" s="2">
-        <f>$F18-$C$26</f>
+        <f t="shared" si="0"/>
         <v>8.6666666666666572</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="2">
-        <f>$F19-$C$26</f>
+        <f t="shared" si="0"/>
         <v>6.9333333333333238</v>
       </c>
       <c r="G20" s="1">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F21" s="2">
-        <f>$F20-$C$26</f>
+        <f t="shared" si="0"/>
         <v>5.1999999999999904</v>
       </c>
       <c r="G21" s="1">
@@ -2279,11 +2279,11 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F22" s="2">
-        <f>$F21-$C$26</f>
+        <f t="shared" si="0"/>
         <v>3.466666666666657</v>
       </c>
       <c r="G22" s="1">
@@ -2302,11 +2302,11 @@
         <v>17</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <f>$F22-$C$26</f>
+        <f t="shared" si="0"/>
         <v>1.7333333333333236</v>
       </c>
       <c r="G23" s="1">
@@ -2326,11 +2326,11 @@
         <v>10</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <f>$F23-$C$26</f>
+        <f t="shared" si="0"/>
         <v>-9.7699626167013776E-15</v>
       </c>
       <c r="G24" s="1">
